--- a/biology/Botanique/Ulvales/Ulvales.xlsx
+++ b/biology/Botanique/Ulvales/Ulvales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ulvales sont un ordre d'algues vertes de la classe des Ulvophyceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (28 oct. 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (28 oct. 2012) :
 famille des Bolbocoleonaceae O'Kelly &amp; Rinkel
 famille des Cloniophoraceae A.L.Carlile, C.J.O'Kelly &amp; A.R.Sherwood
 famille des Jaoaceae Fan
@@ -522,7 +536,7 @@
 famille des Ulvaceae J.V.Lamouroux ex Dumortier
 famille des Ulvales incertae sedis
 famille des Ulvellaceae Schmidle
-Selon Catalogue of Life                                   (24 décembre 2021)[2] :
+Selon Catalogue of Life                                   (24 décembre 2021) :
 famille des Bolbocoleonaceae O'Kelly &amp; Rinkel in Brodie, Maggs &amp; D.M. John, 2007
 famille des Capsosiphonaceae V.J. Chapman, 1952
 famille des Cloniophoraceae
@@ -535,7 +549,7 @@
 famille des Phaeophilaceae D.F. Chappell, C.J. O'Kelly, L.W. Wilcox &amp; G.L. Floyd, 1990
 famille des Ulvaceae J.V. Lamouroux ex Dumortier, 1822
 famille des Ulvellaceae Schmidle, 1899
-Selon ITIS      (24 décembre 2021)[3] :
+Selon ITIS      (24 décembre 2021) :
 famille des Bolbocoleaceae
 famille des Cloniophoraceae
 famille des Jaoaceae
@@ -543,7 +557,7 @@
 famille des Phaeophilaceae
 famille des Ulvaceae
 famille des Ulvellaceae
-Selon NCBI  (28 oct. 2012)[4] :
+Selon NCBI  (28 oct. 2012) :
 famille des Jaoaceae
 genre Jaoa
 famille des Kornmanniaceae
@@ -568,7 +582,7 @@
 genre Pseudendoclonium
 genre Ruthnielsenia
 genre Tellamia
-Selon World Register of Marine Species                               (28 oct. 2012)[5] :
+Selon World Register of Marine Species                               (28 oct. 2012) :
 famille des Bolbocoleonaceae
 famille des Capsosiphonaceae
 famille des Cloniophoraceae
